--- a/indicators/T3/T3.Calc.xlsx
+++ b/indicators/T3/T3.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9C620-0727-446C-8782-95FDCAED97CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB158C7-F6D6-474E-BB44-E0BDCA6EA373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>VF</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -659,6 +665,9 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -706,7 +715,42 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -948,17 +992,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1034,21 +1067,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:J503" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:J503" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C503">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="e1" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{AF331C08-A0B2-451B-9B57-2F314A757038}" name="e2" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{D45D2996-062B-4CC8-A4CF-62AB41E0E771}" name="e3" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{6E6F0788-DF4E-45FC-AD9F-3339DB158788}" name="e4" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{91C748AC-3CD3-40AF-B005-63E5FD0063AF}" name="e5" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{1E4329D1-C0EF-4556-A402-317816F5139F}" name="e6" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="13" xr3:uid="{2E5EED1A-0634-43E4-98DA-A1F5E56700D0}" name="T3" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{C23C78F6-4EA9-43B4-8A9F-AB3990C28285}" name="e1" dataDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{AF331C08-A0B2-451B-9B57-2F314A757038}" name="e2" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="12" xr3:uid="{D45D2996-062B-4CC8-A4CF-62AB41E0E771}" name="e3" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{6E6F0788-DF4E-45FC-AD9F-3339DB158788}" name="e4" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{91C748AC-3CD3-40AF-B005-63E5FD0063AF}" name="e5" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{1E4329D1-C0EF-4556-A402-317816F5139F}" name="e6" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="13" xr3:uid="{2E5EED1A-0634-43E4-98DA-A1F5E56700D0}" name="T3" dataDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1057,9 +1090,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="L1:L3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBE57996-5B83-42FC-AAD5-5349F5AFDDB2}" name="Table5" displayName="Table5" ref="L1:L3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Comma">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{27FF72DA-4D74-4B15-BA48-7E1E6B7BADDE}" name="K" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>2/(20+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1068,11 +1101,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BBBC1097-151C-4EE5-B0D6-15DDE6A53044}" name="Table2" displayName="Table2" ref="L5:L10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BBBC1097-151C-4EE5-B0D6-15DDE6A53044}" name="Table2" displayName="Table2" ref="L5:L10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" dataCellStyle="Comma">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{18CDCC72-34F6-4D79-AC3C-A3BBD4D8BA6D}" name="VF" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{18CDCC72-34F6-4D79-AC3C-A3BBD4D8BA6D}" name="VF" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C40BD2DC-03A0-4EE5-AAD3-E849083222A8}" name="Table4" displayName="Table4" ref="N1:O503" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6BD69F7F-33BD-4518-BDA6-04F766904043}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E4501E1D-16A1-440D-A40A-9FE342CC8CCF}" name="T3" dataDxfId="4" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1373,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M503"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -1388,9 +1431,11 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1424,8 +1469,17 @@
       <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1446,8 +1500,12 @@
         <f>2/(5+1)</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2">
+        <v>42738</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1467,8 +1525,12 @@
       <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>42739</v>
+      </c>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1485,8 +1547,12 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>42740</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1506,8 +1572,12 @@
       <c r="L5" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>42741</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1530,8 +1600,12 @@
       <c r="L6" s="15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <v>42744</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1558,8 +1632,12 @@
       <c r="M7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>42745</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1586,8 +1664,12 @@
       <c r="M8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>42746</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1614,8 +1696,12 @@
       <c r="M9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>42747</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1645,8 +1731,12 @@
       <c r="M10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>42748</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1669,8 +1759,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <v>42752</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1693,8 +1787,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2">
+        <v>42753</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1717,8 +1815,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <v>42754</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1744,8 +1846,12 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <v>42755</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1771,8 +1877,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2">
+        <v>42758</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1798,8 +1908,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="2">
+        <v>42759</v>
+      </c>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1825,8 +1939,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="2">
+        <v>42760</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1855,8 +1973,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="2">
+        <v>42761</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1885,8 +2007,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <v>42762</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1915,8 +2041,12 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <v>42765</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1945,8 +2075,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>42766</v>
+      </c>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1978,8 +2112,12 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <v>42767</v>
+      </c>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2011,8 +2149,12 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <v>42768</v>
+      </c>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2044,8 +2186,12 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <v>42769</v>
+      </c>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2077,8 +2223,12 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <v>42772</v>
+      </c>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2116,8 +2266,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>215.93430461656033</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <v>42773</v>
+      </c>
+      <c r="O26" s="9">
+        <v>215.93430000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2155,8 +2311,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>216.12838533412184</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <v>42774</v>
+      </c>
+      <c r="O27" s="8">
+        <v>216.1284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2194,8 +2356,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>216.45833474433812</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <v>42775</v>
+      </c>
+      <c r="O28" s="8">
+        <v>216.45830000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2233,8 +2401,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>216.95691453028758</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <v>42776</v>
+      </c>
+      <c r="O29" s="8">
+        <v>216.95689999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2272,8 +2446,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>217.64771296998981</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N30" s="2">
+        <v>42779</v>
+      </c>
+      <c r="O30" s="8">
+        <v>217.64769999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2311,8 +2491,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>218.48624602559698</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N31" s="2">
+        <v>42780</v>
+      </c>
+      <c r="O31" s="8">
+        <v>218.4862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2350,8 +2536,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>219.44836828059931</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <v>42781</v>
+      </c>
+      <c r="O32" s="8">
+        <v>219.44839999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2389,8 +2581,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>220.35297171209322</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N33" s="2">
+        <v>42782</v>
+      </c>
+      <c r="O33" s="8">
+        <v>220.35300000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2428,8 +2626,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>221.13011872422544</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <v>42783</v>
+      </c>
+      <c r="O34" s="8">
+        <v>221.1301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2467,8 +2671,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>221.88581555108817</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N35" s="2">
+        <v>42787</v>
+      </c>
+      <c r="O35" s="8">
+        <v>221.88579999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2506,8 +2716,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.53926488072761</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <v>42788</v>
+      </c>
+      <c r="O36" s="8">
+        <v>222.5393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2545,8 +2761,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.05789671938635</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N37" s="2">
+        <v>42789</v>
+      </c>
+      <c r="O37" s="8">
+        <v>223.05789999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2584,8 +2806,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.46043882849904</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <v>42790</v>
+      </c>
+      <c r="O38" s="8">
+        <v>223.46039999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2623,8 +2851,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.78810948924286</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N39" s="2">
+        <v>42793</v>
+      </c>
+      <c r="O39" s="8">
+        <v>223.78809999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2662,8 +2896,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.96687562219574</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N40" s="2">
+        <v>42794</v>
+      </c>
+      <c r="O40" s="8">
+        <v>223.96690000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2701,8 +2941,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.38144537431185</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N41" s="2">
+        <v>42795</v>
+      </c>
+      <c r="O41" s="8">
+        <v>224.38140000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2740,8 +2986,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.79386506117066</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N42" s="2">
+        <v>42796</v>
+      </c>
+      <c r="O42" s="8">
+        <v>224.79390000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2779,8 +3031,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>225.1271780048196</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N43" s="2">
+        <v>42797</v>
+      </c>
+      <c r="O43" s="8">
+        <v>225.12719999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2818,8 +3076,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>225.27990019016306</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N44" s="2">
+        <v>42800</v>
+      </c>
+      <c r="O44" s="8">
+        <v>225.2799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2857,8 +3121,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>225.20586076530753</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N45" s="2">
+        <v>42801</v>
+      </c>
+      <c r="O45" s="8">
+        <v>225.20590000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2896,8 +3166,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.94124830167334</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N46" s="2">
+        <v>42802</v>
+      </c>
+      <c r="O46" s="9">
+        <v>224.94120000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2935,8 +3211,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.626825062629</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N47" s="2">
+        <v>42803</v>
+      </c>
+      <c r="O47" s="8">
+        <v>224.6268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2974,8 +3256,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.42990222048206</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <v>42804</v>
+      </c>
+      <c r="O48" s="8">
+        <v>224.4299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3013,8 +3301,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.36598814532147</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>42807</v>
+      </c>
+      <c r="O49" s="8">
+        <v>224.36600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3052,8 +3346,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.28937444143116</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N50" s="2">
+        <v>42808</v>
+      </c>
+      <c r="O50" s="8">
+        <v>224.2894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3091,8 +3391,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.41172970499281</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N51" s="2">
+        <v>42809</v>
+      </c>
+      <c r="O51" s="8">
+        <v>224.4117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3130,8 +3436,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.62856550167032</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N52" s="2">
+        <v>42810</v>
+      </c>
+      <c r="O52" s="8">
+        <v>224.62860000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3169,8 +3481,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.81247405306351</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N53" s="2">
+        <v>42811</v>
+      </c>
+      <c r="O53" s="8">
+        <v>224.8125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3208,8 +3526,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.90384142975017</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N54" s="2">
+        <v>42814</v>
+      </c>
+      <c r="O54" s="8">
+        <v>224.90379999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3247,8 +3571,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.5819361216154</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N55" s="2">
+        <v>42815</v>
+      </c>
+      <c r="O55" s="8">
+        <v>224.58189999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3286,8 +3616,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.04608816666007</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N56" s="2">
+        <v>42816</v>
+      </c>
+      <c r="O56" s="8">
+        <v>224.0461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3325,8 +3661,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.44758319983032</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N57" s="2">
+        <v>42817</v>
+      </c>
+      <c r="O57" s="8">
+        <v>223.44759999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3364,8 +3706,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.88428710605399</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N58" s="2">
+        <v>42818</v>
+      </c>
+      <c r="O58" s="8">
+        <v>222.8843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3403,8 +3751,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.39377343141246</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N59" s="2">
+        <v>42821</v>
+      </c>
+      <c r="O59" s="8">
+        <v>222.3938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3442,8 +3796,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.19671057394339</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N60" s="2">
+        <v>42822</v>
+      </c>
+      <c r="O60" s="8">
+        <v>222.19669999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3481,8 +3841,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.26491738777247</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N61" s="2">
+        <v>42823</v>
+      </c>
+      <c r="O61" s="8">
+        <v>222.26490000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3520,8 +3886,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.5654975424444</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N62" s="2">
+        <v>42824</v>
+      </c>
+      <c r="O62" s="8">
+        <v>222.56549999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3559,8 +3931,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.909697016564</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N63" s="2">
+        <v>42825</v>
+      </c>
+      <c r="O63" s="8">
+        <v>222.90969999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3598,8 +3976,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.16517103043452</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N64" s="2">
+        <v>42828</v>
+      </c>
+      <c r="O64" s="8">
+        <v>223.1652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3637,8 +4021,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.33376247050523</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N65" s="2">
+        <v>42829</v>
+      </c>
+      <c r="O65" s="8">
+        <v>223.3338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3676,8 +4066,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.35661069215689</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N66" s="2">
+        <v>42830</v>
+      </c>
+      <c r="O66" s="8">
+        <v>223.35659999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3715,8 +4111,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.35119761180226</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N67" s="2">
+        <v>42831</v>
+      </c>
+      <c r="O67" s="8">
+        <v>223.35120000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3754,8 +4156,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.32437700658556</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N68" s="2">
+        <v>42832</v>
+      </c>
+      <c r="O68" s="8">
+        <v>223.3244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3793,8 +4201,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.30470863668302</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N69" s="2">
+        <v>42835</v>
+      </c>
+      <c r="O69" s="8">
+        <v>223.3047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3832,8 +4246,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.26479977716178</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N70" s="2">
+        <v>42836</v>
+      </c>
+      <c r="O70" s="8">
+        <v>223.26480000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3871,8 +4291,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.09696977153908</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N71" s="2">
+        <v>42837</v>
+      </c>
+      <c r="O71" s="8">
+        <v>223.09700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3910,8 +4336,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.68147579306878</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N72" s="2">
+        <v>42838</v>
+      </c>
+      <c r="O72" s="8">
+        <v>222.6815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3949,8 +4381,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.36795151392323</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N73" s="2">
+        <v>42842</v>
+      </c>
+      <c r="O73" s="8">
+        <v>222.36799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3988,8 +4426,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.13653317005958</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N74" s="2">
+        <v>42843</v>
+      </c>
+      <c r="O74" s="8">
+        <v>222.13650000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -4027,8 +4471,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>221.92778294191658</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N75" s="2">
+        <v>42844</v>
+      </c>
+      <c r="O75" s="8">
+        <v>221.92779999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -4066,8 +4516,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>221.95628466656581</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N76" s="2">
+        <v>42845</v>
+      </c>
+      <c r="O76" s="8">
+        <v>221.9563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -4105,8 +4561,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.08304039232439</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N77" s="2">
+        <v>42846</v>
+      </c>
+      <c r="O77" s="8">
+        <v>222.083</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -4144,8 +4606,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>222.51586044927535</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N78" s="2">
+        <v>42849</v>
+      </c>
+      <c r="O78" s="8">
+        <v>222.51589999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -4183,8 +4651,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>223.28012079215171</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N79" s="2">
+        <v>42850</v>
+      </c>
+      <c r="O79" s="8">
+        <v>223.2801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -4222,8 +4696,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.15156876975982</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N80" s="2">
+        <v>42851</v>
+      </c>
+      <c r="O80" s="8">
+        <v>224.1516</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -4261,8 +4741,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>224.97520268295057</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N81" s="2">
+        <v>42852</v>
+      </c>
+      <c r="O81" s="8">
+        <v>224.9752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4300,8 +4786,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>225.59559898687337</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N82" s="2">
+        <v>42853</v>
+      </c>
+      <c r="O82" s="8">
+        <v>225.59559999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4339,8 +4831,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.06346032176998</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N83" s="2">
+        <v>42856</v>
+      </c>
+      <c r="O83" s="8">
+        <v>226.0635</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4378,8 +4876,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.40565483850344</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N84" s="2">
+        <v>42857</v>
+      </c>
+      <c r="O84" s="8">
+        <v>226.4057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4417,8 +4921,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.60534789310998</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N85" s="2">
+        <v>42858</v>
+      </c>
+      <c r="O85" s="8">
+        <v>226.6053</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4456,8 +4966,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.72092316007672</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N86" s="2">
+        <v>42859</v>
+      </c>
+      <c r="O86" s="8">
+        <v>226.7209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4495,8 +5011,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.884121572445</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N87" s="2">
+        <v>42860</v>
+      </c>
+      <c r="O87" s="8">
+        <v>226.88409999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4534,8 +5056,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.07546283199383</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N88" s="2">
+        <v>42863</v>
+      </c>
+      <c r="O88" s="8">
+        <v>227.07550000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4573,8 +5101,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.23120941674813</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N89" s="2">
+        <v>42864</v>
+      </c>
+      <c r="O89" s="8">
+        <v>227.2312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -4612,8 +5146,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.38151404624489</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N90" s="2">
+        <v>42865</v>
+      </c>
+      <c r="O90" s="8">
+        <v>227.38149999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -4651,8 +5191,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.46021276574743</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N91" s="2">
+        <v>42866</v>
+      </c>
+      <c r="O91" s="8">
+        <v>227.46019999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -4690,8 +5236,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.42783559245504</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N92" s="2">
+        <v>42867</v>
+      </c>
+      <c r="O92" s="8">
+        <v>227.42779999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -4729,8 +5281,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.46826098252268</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N93" s="2">
+        <v>42870</v>
+      </c>
+      <c r="O93" s="8">
+        <v>227.4683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -4768,8 +5326,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.55574718332571</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N94" s="2">
+        <v>42871</v>
+      </c>
+      <c r="O94" s="8">
+        <v>227.5557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -4807,8 +5371,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.18317202314677</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N95" s="2">
+        <v>42872</v>
+      </c>
+      <c r="O95" s="8">
+        <v>227.1832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -4846,8 +5416,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.582279571247</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N96" s="2">
+        <v>42873</v>
+      </c>
+      <c r="O96" s="8">
+        <v>226.5823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -4885,8 +5461,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.12120201814378</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N97" s="2">
+        <v>42874</v>
+      </c>
+      <c r="O97" s="8">
+        <v>226.12119999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -4924,8 +5506,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>225.99564768268021</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N98" s="2">
+        <v>42877</v>
+      </c>
+      <c r="O98" s="8">
+        <v>225.9956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -4963,8 +5551,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.18109899454157</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N99" s="2">
+        <v>42878</v>
+      </c>
+      <c r="O99" s="8">
+        <v>226.18109999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -5002,8 +5596,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>226.59176307317466</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N100" s="2">
+        <v>42879</v>
+      </c>
+      <c r="O100" s="8">
+        <v>226.59180000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -5041,8 +5641,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.20668672352554</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N101" s="2">
+        <v>42880</v>
+      </c>
+      <c r="O101" s="8">
+        <v>227.20670000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -5080,8 +5686,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>227.87038831535529</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N102" s="2">
+        <v>42881</v>
+      </c>
+      <c r="O102" s="8">
+        <v>227.87039999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -5119,8 +5731,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>228.44081288780171</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N103" s="2">
+        <v>42885</v>
+      </c>
+      <c r="O103" s="8">
+        <v>228.4408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -5158,8 +5776,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>228.86052744162168</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N104" s="2">
+        <v>42886</v>
+      </c>
+      <c r="O104" s="8">
+        <v>228.8605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -5197,8 +5821,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>229.34672150763936</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N105" s="2">
+        <v>42887</v>
+      </c>
+      <c r="O105" s="8">
+        <v>229.3467</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -5236,8 +5866,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>229.94947130342803</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N106" s="2">
+        <v>42888</v>
+      </c>
+      <c r="O106" s="8">
+        <v>229.9495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -5275,8 +5911,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.543321897341</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N107" s="2">
+        <v>42891</v>
+      </c>
+      <c r="O107" s="8">
+        <v>230.54329999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -5314,8 +5956,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.95518091670294</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N108" s="2">
+        <v>42892</v>
+      </c>
+      <c r="O108" s="8">
+        <v>230.95519999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -5353,8 +6001,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.22794239765631</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N109" s="2">
+        <v>42893</v>
+      </c>
+      <c r="O109" s="8">
+        <v>231.22790000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -5392,8 +6046,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.40611038358634</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N110" s="2">
+        <v>42894</v>
+      </c>
+      <c r="O110" s="8">
+        <v>231.40610000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -5431,8 +6091,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.47035569562945</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N111" s="2">
+        <v>42895</v>
+      </c>
+      <c r="O111" s="8">
+        <v>231.47040000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -5470,8 +6136,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.44666827362403</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N112" s="2">
+        <v>42898</v>
+      </c>
+      <c r="O112" s="8">
+        <v>231.44669999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -5509,8 +6181,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.50558146759226</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N113" s="2">
+        <v>42899</v>
+      </c>
+      <c r="O113" s="8">
+        <v>231.50559999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -5548,8 +6226,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.60120215177017</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N114" s="2">
+        <v>42900</v>
+      </c>
+      <c r="O114" s="8">
+        <v>231.60120000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -5587,8 +6271,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.64556709061014</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N115" s="2">
+        <v>42901</v>
+      </c>
+      <c r="O115" s="8">
+        <v>231.6456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -5626,8 +6316,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.64128694611804</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N116" s="2">
+        <v>42902</v>
+      </c>
+      <c r="O116" s="8">
+        <v>231.6413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -5665,8 +6361,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.83101135973993</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N117" s="2">
+        <v>42905</v>
+      </c>
+      <c r="O117" s="8">
+        <v>231.83099999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -5704,8 +6406,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.97729666159171</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N118" s="2">
+        <v>42906</v>
+      </c>
+      <c r="O118" s="8">
+        <v>231.97730000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -5743,8 +6451,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.02863727554507</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N119" s="2">
+        <v>42907</v>
+      </c>
+      <c r="O119" s="8">
+        <v>232.02860000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -5782,8 +6496,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.99482180671112</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N120" s="2">
+        <v>42908</v>
+      </c>
+      <c r="O120" s="8">
+        <v>231.9948</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -5821,8 +6541,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.94546707465565</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N121" s="2">
+        <v>42909</v>
+      </c>
+      <c r="O121" s="8">
+        <v>231.94550000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -5860,8 +6586,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.9224303279218</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N122" s="2">
+        <v>42912</v>
+      </c>
+      <c r="O122" s="8">
+        <v>231.92240000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -5899,8 +6631,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.70578959295131</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N123" s="2">
+        <v>42913</v>
+      </c>
+      <c r="O123" s="8">
+        <v>231.70580000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -5938,8 +6676,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.59444176095269</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N124" s="2">
+        <v>42914</v>
+      </c>
+      <c r="O124" s="8">
+        <v>231.59440000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -5977,8 +6721,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.37538044388498</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N125" s="2">
+        <v>42915</v>
+      </c>
+      <c r="O125" s="8">
+        <v>231.37540000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -6016,8 +6766,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.12474248113597</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N126" s="2">
+        <v>42916</v>
+      </c>
+      <c r="O126" s="8">
+        <v>231.12469999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -6055,8 +6811,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.94181171516834</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N127" s="2">
+        <v>42919</v>
+      </c>
+      <c r="O127" s="8">
+        <v>230.9418</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -6094,8 +6856,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.89991632591034</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N128" s="2">
+        <v>42921</v>
+      </c>
+      <c r="O128" s="8">
+        <v>230.8999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -6133,8 +6901,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.7138828404826</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N129" s="2">
+        <v>42922</v>
+      </c>
+      <c r="O129" s="8">
+        <v>230.7139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -6172,8 +6946,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.58262355579336</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N130" s="2">
+        <v>42923</v>
+      </c>
+      <c r="O130" s="8">
+        <v>230.58260000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -6211,8 +6991,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.5660282960805</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N131" s="2">
+        <v>42926</v>
+      </c>
+      <c r="O131" s="8">
+        <v>230.566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -6250,8 +7036,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.6124860717116</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N132" s="2">
+        <v>42927</v>
+      </c>
+      <c r="O132" s="8">
+        <v>230.61250000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -6289,8 +7081,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>230.88548398586931</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N133" s="2">
+        <v>42928</v>
+      </c>
+      <c r="O133" s="8">
+        <v>230.88550000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -6328,8 +7126,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.3429054377084</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N134" s="2">
+        <v>42929</v>
+      </c>
+      <c r="O134" s="8">
+        <v>231.34289999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -6367,8 +7171,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>231.98271004340222</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N135" s="2">
+        <v>42930</v>
+      </c>
+      <c r="O135" s="8">
+        <v>231.98269999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -6406,8 +7216,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.66057129537342</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N136" s="2">
+        <v>42933</v>
+      </c>
+      <c r="O136" s="8">
+        <v>232.66059999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -6445,8 +7261,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>233.27702503999126</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N137" s="2">
+        <v>42934</v>
+      </c>
+      <c r="O137" s="8">
+        <v>233.27699999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -6484,8 +7306,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>233.91847065901061</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N138" s="2">
+        <v>42935</v>
+      </c>
+      <c r="O138" s="8">
+        <v>233.91849999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -6523,8 +7351,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.53362481015824</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N139" s="2">
+        <v>42936</v>
+      </c>
+      <c r="O139" s="8">
+        <v>234.53360000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -6562,8 +7396,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.0302804874799</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N140" s="2">
+        <v>42937</v>
+      </c>
+      <c r="O140" s="8">
+        <v>235.03030000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -6601,8 +7441,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.37489573117102</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N141" s="2">
+        <v>42940</v>
+      </c>
+      <c r="O141" s="8">
+        <v>235.3749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -6640,8 +7486,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.64763171398374</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N142" s="2">
+        <v>42941</v>
+      </c>
+      <c r="O142" s="8">
+        <v>235.64760000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -6679,8 +7531,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.85983796637618</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N143" s="2">
+        <v>42942</v>
+      </c>
+      <c r="O143" s="8">
+        <v>235.85980000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -6718,8 +7576,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.98487897691007</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N144" s="2">
+        <v>42943</v>
+      </c>
+      <c r="O144" s="8">
+        <v>235.98490000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -6757,8 +7621,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>236.00328545692912</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N145" s="2">
+        <v>42944</v>
+      </c>
+      <c r="O145" s="8">
+        <v>236.0033</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -6796,8 +7666,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.93159284926992</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N146" s="2">
+        <v>42947</v>
+      </c>
+      <c r="O146" s="8">
+        <v>235.9316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -6835,8 +7711,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.87477764215953</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N147" s="2">
+        <v>42948</v>
+      </c>
+      <c r="O147" s="8">
+        <v>235.87479999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -6874,8 +7756,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.8623158022375</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N148" s="2">
+        <v>42949</v>
+      </c>
+      <c r="O148" s="8">
+        <v>235.8623</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -6913,8 +7801,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.82812806743573</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N149" s="2">
+        <v>42950</v>
+      </c>
+      <c r="O149" s="8">
+        <v>235.82810000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -6952,8 +7846,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.81918517715087</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N150" s="2">
+        <v>42951</v>
+      </c>
+      <c r="O150" s="8">
+        <v>235.8192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -6991,8 +7891,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.88508441614908</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N151" s="2">
+        <v>42954</v>
+      </c>
+      <c r="O151" s="9">
+        <v>235.88509999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -7030,8 +7936,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.92924764685358</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N152" s="2">
+        <v>42955</v>
+      </c>
+      <c r="O152" s="8">
+        <v>235.92920000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -7069,8 +7981,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.93541331736992</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N153" s="2">
+        <v>42956</v>
+      </c>
+      <c r="O153" s="8">
+        <v>235.93539999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -7108,8 +8026,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.52521777827064</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N154" s="2">
+        <v>42957</v>
+      </c>
+      <c r="O154" s="8">
+        <v>235.52520000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -7147,8 +8071,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.87782535016299</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N155" s="2">
+        <v>42958</v>
+      </c>
+      <c r="O155" s="8">
+        <v>234.87780000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -7186,8 +8116,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.45889133728099</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N156" s="2">
+        <v>42961</v>
+      </c>
+      <c r="O156" s="8">
+        <v>234.4589</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -7225,8 +8161,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.30659195649332</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N157" s="2">
+        <v>42962</v>
+      </c>
+      <c r="O157" s="8">
+        <v>234.3066</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -7264,8 +8206,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.3861618367556</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N158" s="2">
+        <v>42963</v>
+      </c>
+      <c r="O158" s="8">
+        <v>234.3862</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -7303,8 +8251,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.16265895212098</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N159" s="2">
+        <v>42964</v>
+      </c>
+      <c r="O159" s="8">
+        <v>234.1627</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -7342,8 +8296,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>233.63923995220966</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N160" s="2">
+        <v>42965</v>
+      </c>
+      <c r="O160" s="8">
+        <v>233.63919999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -7381,8 +8341,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>233.0151526611221</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N161" s="2">
+        <v>42968</v>
+      </c>
+      <c r="O161" s="8">
+        <v>233.01519999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -7420,8 +8386,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.72009165873374</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N162" s="2">
+        <v>42969</v>
+      </c>
+      <c r="O162" s="8">
+        <v>232.7201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -7459,8 +8431,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.63838992254466</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N163" s="2">
+        <v>42970</v>
+      </c>
+      <c r="O163" s="8">
+        <v>232.63839999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -7498,8 +8476,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.60985924669194</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N164" s="2">
+        <v>42971</v>
+      </c>
+      <c r="O164" s="8">
+        <v>232.60990000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -7537,8 +8521,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.65352131279576</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N165" s="2">
+        <v>42972</v>
+      </c>
+      <c r="O165" s="8">
+        <v>232.65350000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -7576,8 +8566,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.74366461945806</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N166" s="2">
+        <v>42975</v>
+      </c>
+      <c r="O166" s="8">
+        <v>232.74369999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -7615,8 +8611,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>232.88027071094882</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N167" s="2">
+        <v>42976</v>
+      </c>
+      <c r="O167" s="8">
+        <v>232.88030000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -7654,8 +8656,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>233.16207759974168</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N168" s="2">
+        <v>42977</v>
+      </c>
+      <c r="O168" s="8">
+        <v>233.16210000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -7693,8 +8701,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>233.68600619630547</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N169" s="2">
+        <v>42978</v>
+      </c>
+      <c r="O169" s="8">
+        <v>233.68600000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -7732,8 +8746,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.35738023502586</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N170" s="2">
+        <v>42979</v>
+      </c>
+      <c r="O170" s="8">
+        <v>234.35740000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -7771,8 +8791,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>234.83104148602843</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N171" s="2">
+        <v>42983</v>
+      </c>
+      <c r="O171" s="8">
+        <v>234.83099999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -7810,8 +8836,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.16398328873936</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N172" s="2">
+        <v>42984</v>
+      </c>
+      <c r="O172" s="8">
+        <v>235.16399999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -7849,8 +8881,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.38306251181007</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N173" s="2">
+        <v>42985</v>
+      </c>
+      <c r="O173" s="8">
+        <v>235.38310000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -7888,8 +8926,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.48059854024598</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N174" s="2">
+        <v>42986</v>
+      </c>
+      <c r="O174" s="8">
+        <v>235.48060000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -7927,8 +8971,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>235.78396394006086</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N175" s="2">
+        <v>42989</v>
+      </c>
+      <c r="O175" s="8">
+        <v>235.78399999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -7966,8 +9016,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>236.33082695730582</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N176" s="2">
+        <v>42990</v>
+      </c>
+      <c r="O176" s="8">
+        <v>236.33080000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -8005,8 +9061,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>236.98399144906489</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N177" s="2">
+        <v>42991</v>
+      </c>
+      <c r="O177" s="8">
+        <v>236.98400000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -8044,8 +9106,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>237.59376464118202</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N178" s="2">
+        <v>42992</v>
+      </c>
+      <c r="O178" s="8">
+        <v>237.59379999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -8083,8 +9151,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>238.11911763331614</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N179" s="2">
+        <v>42993</v>
+      </c>
+      <c r="O179" s="8">
+        <v>238.1191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -8122,8 +9196,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>238.58647459215922</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N180" s="2">
+        <v>42996</v>
+      </c>
+      <c r="O180" s="8">
+        <v>238.5865</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -8161,8 +9241,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>238.99836368722936</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N181" s="2">
+        <v>42997</v>
+      </c>
+      <c r="O181" s="8">
+        <v>238.9984</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -8200,8 +9286,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.33858070566964</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N182" s="2">
+        <v>42998</v>
+      </c>
+      <c r="O182" s="8">
+        <v>239.33860000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -8239,8 +9331,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.51718121885347</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N183" s="2">
+        <v>42999</v>
+      </c>
+      <c r="O183" s="8">
+        <v>239.5172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -8278,8 +9376,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.56410545149947</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N184" s="2">
+        <v>43000</v>
+      </c>
+      <c r="O184" s="8">
+        <v>239.5641</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -8317,8 +9421,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.47089241916888</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N185" s="2">
+        <v>43003</v>
+      </c>
+      <c r="O185" s="8">
+        <v>239.4709</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -8356,8 +9466,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.31517883560264</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N186" s="2">
+        <v>43004</v>
+      </c>
+      <c r="O186" s="8">
+        <v>239.3152</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -8395,8 +9511,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.25688995294331</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N187" s="2">
+        <v>43005</v>
+      </c>
+      <c r="O187" s="8">
+        <v>239.2569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -8434,8 +9556,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.32415727602097</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N188" s="2">
+        <v>43006</v>
+      </c>
+      <c r="O188" s="8">
+        <v>239.32419999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -8473,8 +9601,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>239.56190684777721</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N189" s="2">
+        <v>43007</v>
+      </c>
+      <c r="O189" s="8">
+        <v>239.56190000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -8512,8 +9646,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>240.00502101922541</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N190" s="2">
+        <v>43010</v>
+      </c>
+      <c r="O190" s="8">
+        <v>240.005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -8551,8 +9691,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>240.59029026117423</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N191" s="2">
+        <v>43011</v>
+      </c>
+      <c r="O191" s="8">
+        <v>240.59030000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -8590,8 +9736,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>241.21818546194709</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N192" s="2">
+        <v>43012</v>
+      </c>
+      <c r="O192" s="8">
+        <v>241.2182</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -8629,8 +9781,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>241.95284798845569</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N193" s="2">
+        <v>43013</v>
+      </c>
+      <c r="O193" s="8">
+        <v>241.9528</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -8668,8 +9826,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>242.65059406676892</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N194" s="2">
+        <v>43014</v>
+      </c>
+      <c r="O194" s="8">
+        <v>242.6506</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -8707,8 +9871,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>243.17522657763379</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N195" s="2">
+        <v>43017</v>
+      </c>
+      <c r="O195" s="8">
+        <v>243.17519999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -8746,8 +9916,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>243.58566520358272</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N196" s="2">
+        <v>43018</v>
+      </c>
+      <c r="O196" s="8">
+        <v>243.5857</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -8785,8 +9961,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>243.93619392193443</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N197" s="2">
+        <v>43019</v>
+      </c>
+      <c r="O197" s="8">
+        <v>243.93620000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -8824,8 +10006,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>244.17558978037425</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N198" s="2">
+        <v>43020</v>
+      </c>
+      <c r="O198" s="8">
+        <v>244.1756</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -8863,8 +10051,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>244.3432947077572</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N199" s="2">
+        <v>43021</v>
+      </c>
+      <c r="O199" s="8">
+        <v>244.3433</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -8902,8 +10096,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>244.49132546867486</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N200" s="2">
+        <v>43024</v>
+      </c>
+      <c r="O200" s="8">
+        <v>244.4913</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -8941,8 +10141,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>244.63691064895568</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N201" s="2">
+        <v>43025</v>
+      </c>
+      <c r="O201" s="8">
+        <v>244.6369</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -8980,8 +10186,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>244.79268797325551</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N202" s="2">
+        <v>43026</v>
+      </c>
+      <c r="O202" s="8">
+        <v>244.7927</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -9019,8 +10231,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>244.94371568518375</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N203" s="2">
+        <v>43027</v>
+      </c>
+      <c r="O203" s="8">
+        <v>244.94370000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -9058,8 +10276,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.21813682421214</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N204" s="2">
+        <v>43028</v>
+      </c>
+      <c r="O204" s="8">
+        <v>245.21809999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -9097,8 +10321,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.44639539202717</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N205" s="2">
+        <v>43031</v>
+      </c>
+      <c r="O205" s="8">
+        <v>245.44640000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -9136,8 +10366,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.63829508785557</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N206" s="2">
+        <v>43032</v>
+      </c>
+      <c r="O206" s="8">
+        <v>245.63829999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -9175,8 +10411,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.64589813799091</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N207" s="2">
+        <v>43033</v>
+      </c>
+      <c r="O207" s="8">
+        <v>245.64590000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -9214,8 +10456,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.54793119484304</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N208" s="2">
+        <v>43034</v>
+      </c>
+      <c r="O208" s="8">
+        <v>245.5479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -9253,8 +10501,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.64307686307029</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N209" s="2">
+        <v>43035</v>
+      </c>
+      <c r="O209" s="8">
+        <v>245.6431</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -9292,8 +10546,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.79035808118829</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N210" s="2">
+        <v>43038</v>
+      </c>
+      <c r="O210" s="8">
+        <v>245.79040000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -9331,8 +10591,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.97039338738057</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N211" s="2">
+        <v>43039</v>
+      </c>
+      <c r="O211" s="8">
+        <v>245.97040000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -9370,8 +10636,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>246.18326588818854</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N212" s="2">
+        <v>43040</v>
+      </c>
+      <c r="O212" s="8">
+        <v>246.1833</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -9409,8 +10681,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>246.40355012508508</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N213" s="2">
+        <v>43041</v>
+      </c>
+      <c r="O213" s="8">
+        <v>246.40360000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -9448,8 +10726,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>246.69448554585642</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N214" s="2">
+        <v>43042</v>
+      </c>
+      <c r="O214" s="8">
+        <v>246.69450000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -9487,8 +10771,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.05284019144403</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N215" s="2">
+        <v>43045</v>
+      </c>
+      <c r="O215" s="8">
+        <v>247.05279999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -9526,8 +10816,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.39023591386092</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N216" s="2">
+        <v>43046</v>
+      </c>
+      <c r="O216" s="8">
+        <v>247.39019999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -9565,8 +10861,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.71097308247101</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N217" s="2">
+        <v>43047</v>
+      </c>
+      <c r="O217" s="8">
+        <v>247.71100000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -9604,8 +10906,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.88118451346133</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N218" s="2">
+        <v>43048</v>
+      </c>
+      <c r="O218" s="8">
+        <v>247.88120000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -9643,8 +10951,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.90606428149931</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N219" s="2">
+        <v>43049</v>
+      </c>
+      <c r="O219" s="8">
+        <v>247.90610000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -9682,8 +10996,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.86639435816483</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N220" s="2">
+        <v>43052</v>
+      </c>
+      <c r="O220" s="8">
+        <v>247.8664</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -9721,8 +11041,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.73700358637598</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N221" s="2">
+        <v>43053</v>
+      </c>
+      <c r="O221" s="8">
+        <v>247.73699999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -9760,8 +11086,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.4166544049508</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N222" s="2">
+        <v>43054</v>
+      </c>
+      <c r="O222" s="8">
+        <v>247.41669999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -9799,8 +11131,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.23899050309683</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N223" s="2">
+        <v>43055</v>
+      </c>
+      <c r="O223" s="8">
+        <v>247.239</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -9838,8 +11176,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.14186095440357</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N224" s="2">
+        <v>43056</v>
+      </c>
+      <c r="O224" s="8">
+        <v>247.14189999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -9877,8 +11221,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.13986268462611</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N225" s="2">
+        <v>43059</v>
+      </c>
+      <c r="O225" s="8">
+        <v>247.13990000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -9916,8 +11266,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.38705190052531</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N226" s="2">
+        <v>43060</v>
+      </c>
+      <c r="O226" s="8">
+        <v>247.3871</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -9955,8 +11311,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>247.76094084870601</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N227" s="2">
+        <v>43061</v>
+      </c>
+      <c r="O227" s="8">
+        <v>247.76089999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -9994,8 +11356,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>248.2149132815008</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N228" s="2">
+        <v>43063</v>
+      </c>
+      <c r="O228" s="8">
+        <v>248.2149</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -10033,8 +11401,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>248.64599288499267</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N229" s="2">
+        <v>43066</v>
+      </c>
+      <c r="O229" s="8">
+        <v>248.64599999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -10072,8 +11446,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>249.29331170244654</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N230" s="2">
+        <v>43067</v>
+      </c>
+      <c r="O230" s="8">
+        <v>249.29329999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -10111,8 +11491,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>250.02789109606931</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N231" s="2">
+        <v>43068</v>
+      </c>
+      <c r="O231" s="8">
+        <v>250.02789999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -10150,8 +11536,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>250.96765413524702</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N232" s="2">
+        <v>43069</v>
+      </c>
+      <c r="O232" s="8">
+        <v>250.96770000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -10189,8 +11581,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>251.88840023360285</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N233" s="2">
+        <v>43070</v>
+      </c>
+      <c r="O233" s="8">
+        <v>251.88839999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -10228,8 +11626,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>252.61922624603449</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N234" s="2">
+        <v>43073</v>
+      </c>
+      <c r="O234" s="8">
+        <v>252.61920000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -10267,8 +11671,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.01565367744126</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N235" s="2">
+        <v>43074</v>
+      </c>
+      <c r="O235" s="8">
+        <v>253.01570000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -10306,8 +11716,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.14151468738066</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N236" s="2">
+        <v>43075</v>
+      </c>
+      <c r="O236" s="8">
+        <v>253.14150000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -10345,8 +11761,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.19117369832429</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N237" s="2">
+        <v>43076</v>
+      </c>
+      <c r="O237" s="8">
+        <v>253.19120000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -10384,8 +11806,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.38150983354558</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N238" s="2">
+        <v>43077</v>
+      </c>
+      <c r="O238" s="8">
+        <v>253.38149999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -10423,8 +11851,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.76110308606292</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N239" s="2">
+        <v>43080</v>
+      </c>
+      <c r="O239" s="8">
+        <v>253.7611</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -10462,8 +11896,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>254.27071887298484</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N240" s="2">
+        <v>43081</v>
+      </c>
+      <c r="O240" s="8">
+        <v>254.27070000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -10501,8 +11941,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>254.7853526920029</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N241" s="2">
+        <v>43082</v>
+      </c>
+      <c r="O241" s="8">
+        <v>254.78540000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -10540,8 +11986,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.09823068415562</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N242" s="2">
+        <v>43083</v>
+      </c>
+      <c r="O242" s="8">
+        <v>255.09819999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -10579,8 +12031,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.4617110626773</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N243" s="2">
+        <v>43084</v>
+      </c>
+      <c r="O243" s="8">
+        <v>255.46170000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -10618,8 +12076,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.05073814238983</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N244" s="2">
+        <v>43087</v>
+      </c>
+      <c r="O244" s="8">
+        <v>256.05070000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -10657,8 +12121,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.62537414643759</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N245" s="2">
+        <v>43088</v>
+      </c>
+      <c r="O245" s="8">
+        <v>256.62540000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -10696,8 +12166,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.0645667691507</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N246" s="2">
+        <v>43089</v>
+      </c>
+      <c r="O246" s="8">
+        <v>257.06459999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -10735,8 +12211,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.41076324922187</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N247" s="2">
+        <v>43090</v>
+      </c>
+      <c r="O247" s="8">
+        <v>257.41079999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -10774,8 +12256,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.66080333336572</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N248" s="2">
+        <v>43091</v>
+      </c>
+      <c r="O248" s="8">
+        <v>257.66079999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -10813,8 +12301,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.78499374116154</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N249" s="2">
+        <v>43095</v>
+      </c>
+      <c r="O249" s="8">
+        <v>257.78500000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -10852,8 +12346,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.8242276427676</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N250" s="2">
+        <v>43096</v>
+      </c>
+      <c r="O250" s="8">
+        <v>257.82420000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -10891,8 +12391,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.87351884738746</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N251" s="2">
+        <v>43097</v>
+      </c>
+      <c r="O251" s="9">
+        <v>257.87349999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -10930,8 +12436,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.82410849822281</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N252" s="2">
+        <v>43098</v>
+      </c>
+      <c r="O252" s="8">
+        <v>257.82409999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -10969,8 +12481,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.91178138605028</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N253" s="2">
+        <v>43102</v>
+      </c>
+      <c r="O253" s="8">
+        <v>257.91180000000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -11008,8 +12526,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.30549914165954</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N254" s="2">
+        <v>43103</v>
+      </c>
+      <c r="O254" s="8">
+        <v>258.30549999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -11047,8 +12571,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.99769421898304</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N255" s="2">
+        <v>43104</v>
+      </c>
+      <c r="O255" s="8">
+        <v>258.99770000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -11086,8 +12616,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.99643988014429</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N256" s="2">
+        <v>43105</v>
+      </c>
+      <c r="O256" s="8">
+        <v>259.99639999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -11125,8 +12661,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.12857373537145</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N257" s="2">
+        <v>43108</v>
+      </c>
+      <c r="O257" s="8">
+        <v>261.12860000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -11164,8 +12706,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.25536539004622</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N258" s="2">
+        <v>43109</v>
+      </c>
+      <c r="O258" s="8">
+        <v>262.25540000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -11203,8 +12751,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.18158994455041</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N259" s="2">
+        <v>43110</v>
+      </c>
+      <c r="O259" s="8">
+        <v>263.1816</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -11242,8 +12796,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.07288669882928</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N260" s="2">
+        <v>43111</v>
+      </c>
+      <c r="O260" s="8">
+        <v>264.0729</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -11281,8 +12841,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.07560285434226</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N261" s="2">
+        <v>43112</v>
+      </c>
+      <c r="O261" s="8">
+        <v>265.07560000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -11320,8 +12886,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.95255863395801</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N262" s="2">
+        <v>43116</v>
+      </c>
+      <c r="O262" s="8">
+        <v>265.95260000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -11359,8 +12931,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.9052736197998</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N263" s="2">
+        <v>43117</v>
+      </c>
+      <c r="O263" s="8">
+        <v>266.90530000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -11398,8 +12976,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.77944230272374</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N264" s="2">
+        <v>43118</v>
+      </c>
+      <c r="O264" s="8">
+        <v>267.77940000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -11437,8 +13021,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.61854913293541</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N265" s="2">
+        <v>43119</v>
+      </c>
+      <c r="O265" s="8">
+        <v>268.61849999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -11476,8 +13066,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.60399753630054</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N266" s="2">
+        <v>43122</v>
+      </c>
+      <c r="O266" s="8">
+        <v>269.60399999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -11515,8 +13111,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>270.6643142788314</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N267" s="2">
+        <v>43123</v>
+      </c>
+      <c r="O267" s="8">
+        <v>270.66430000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -11554,8 +13156,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>271.62268776883434</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N268" s="2">
+        <v>43124</v>
+      </c>
+      <c r="O268" s="8">
+        <v>271.62270000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -11593,8 +13201,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.38855547761364</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N269" s="2">
+        <v>43125</v>
+      </c>
+      <c r="O269" s="8">
+        <v>272.3886</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -11632,8 +13246,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.30042191430039</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N270" s="2">
+        <v>43126</v>
+      </c>
+      <c r="O270" s="8">
+        <v>273.30040000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -11671,8 +13291,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>274.04323055745886</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N271" s="2">
+        <v>43129</v>
+      </c>
+      <c r="O271" s="8">
+        <v>274.04320000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -11710,8 +13336,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>274.20834527701368</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N272" s="2">
+        <v>43130</v>
+      </c>
+      <c r="O272" s="8">
+        <v>274.20830000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -11749,8 +13381,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.93942101187463</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N273" s="2">
+        <v>43131</v>
+      </c>
+      <c r="O273" s="8">
+        <v>273.93939999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -11788,8 +13426,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.42029168117256</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N274" s="2">
+        <v>43132</v>
+      </c>
+      <c r="O274" s="8">
+        <v>273.4203</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -11827,8 +13471,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.14158832543785</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N275" s="2">
+        <v>43133</v>
+      </c>
+      <c r="O275" s="8">
+        <v>272.14159999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -11866,8 +13516,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.14423599178326</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N276" s="2">
+        <v>43136</v>
+      </c>
+      <c r="O276" s="8">
+        <v>269.14420000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -11905,8 +13561,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.83439343115197</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N277" s="2">
+        <v>43137</v>
+      </c>
+      <c r="O277" s="8">
+        <v>265.83440000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -11944,8 +13606,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.78649462941326</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N278" s="2">
+        <v>43138</v>
+      </c>
+      <c r="O278" s="8">
+        <v>262.78649999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -11983,8 +13651,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.1992042100469</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N279" s="2">
+        <v>43139</v>
+      </c>
+      <c r="O279" s="8">
+        <v>259.19920000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -12022,8 +13696,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.96178917109705</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N280" s="2">
+        <v>43140</v>
+      </c>
+      <c r="O280" s="8">
+        <v>255.96180000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -12061,8 +13741,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.89058560810327</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N281" s="2">
+        <v>43143</v>
+      </c>
+      <c r="O281" s="8">
+        <v>253.89060000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -12100,8 +13786,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>252.98275693064102</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N282" s="2">
+        <v>43144</v>
+      </c>
+      <c r="O282" s="8">
+        <v>252.9828</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -12139,8 +13831,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.29317010528518</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N283" s="2">
+        <v>43145</v>
+      </c>
+      <c r="O283" s="8">
+        <v>253.29320000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -12178,8 +13876,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>254.72064555588224</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N284" s="2">
+        <v>43146</v>
+      </c>
+      <c r="O284" s="8">
+        <v>254.72059999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -12217,8 +13921,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.67827918963064</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N285" s="2">
+        <v>43147</v>
+      </c>
+      <c r="O285" s="8">
+        <v>256.67829999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -12256,8 +13966,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.46118930499381</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N286" s="2">
+        <v>43151</v>
+      </c>
+      <c r="O286" s="8">
+        <v>258.46120000000002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -12295,8 +14011,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.67918156225312</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N287" s="2">
+        <v>43152</v>
+      </c>
+      <c r="O287" s="8">
+        <v>259.67919999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -12334,8 +14056,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.40347051967478</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N288" s="2">
+        <v>43153</v>
+      </c>
+      <c r="O288" s="8">
+        <v>260.40350000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -12373,8 +14101,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.25598329799971</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N289" s="2">
+        <v>43154</v>
+      </c>
+      <c r="O289" s="8">
+        <v>261.25599999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -12412,8 +14146,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.56976208387562</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N290" s="2">
+        <v>43157</v>
+      </c>
+      <c r="O290" s="8">
+        <v>262.56979999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -12451,8 +14191,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.68998070009843</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N291" s="2">
+        <v>43158</v>
+      </c>
+      <c r="O291" s="8">
+        <v>263.69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -12490,8 +14236,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.13449391364907</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N292" s="2">
+        <v>43159</v>
+      </c>
+      <c r="O292" s="8">
+        <v>264.1345</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -12529,8 +14281,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.58645405724894</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N293" s="2">
+        <v>43160</v>
+      </c>
+      <c r="O293" s="8">
+        <v>263.5865</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -12568,8 +14326,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.59039615945994</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N294" s="2">
+        <v>43161</v>
+      </c>
+      <c r="O294" s="8">
+        <v>262.59039999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -12607,8 +14371,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.87615339745685</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N295" s="2">
+        <v>43164</v>
+      </c>
+      <c r="O295" s="8">
+        <v>261.87619999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -12646,8 +14416,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.61624586520213</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N296" s="2">
+        <v>43165</v>
+      </c>
+      <c r="O296" s="8">
+        <v>261.61619999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -12685,8 +14461,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.67334074890596</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N297" s="2">
+        <v>43166</v>
+      </c>
+      <c r="O297" s="8">
+        <v>261.67329999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -12724,8 +14506,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.03565127299157</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N298" s="2">
+        <v>43167</v>
+      </c>
+      <c r="O298" s="8">
+        <v>262.03570000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -12763,8 +14551,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.07788647422558</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N299" s="2">
+        <v>43168</v>
+      </c>
+      <c r="O299" s="8">
+        <v>263.0779</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -12802,8 +14596,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.44840941189409</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N300" s="2">
+        <v>43171</v>
+      </c>
+      <c r="O300" s="8">
+        <v>264.44839999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -12841,8 +14641,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.60180090939912</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N301" s="2">
+        <v>43172</v>
+      </c>
+      <c r="O301" s="8">
+        <v>265.60180000000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -12880,8 +14686,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.23853479422837</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N302" s="2">
+        <v>43173</v>
+      </c>
+      <c r="O302" s="8">
+        <v>266.23849999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -12919,8 +14731,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.4043971476799</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N303" s="2">
+        <v>43174</v>
+      </c>
+      <c r="O303" s="8">
+        <v>266.40440000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -12958,8 +14776,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.30769534880665</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N304" s="2">
+        <v>43175</v>
+      </c>
+      <c r="O304" s="8">
+        <v>266.30770000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -12997,8 +14821,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.67741658856085</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N305" s="2">
+        <v>43178</v>
+      </c>
+      <c r="O305" s="8">
+        <v>265.67739999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -13036,8 +14866,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.788463732428</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N306" s="2">
+        <v>43179</v>
+      </c>
+      <c r="O306" s="8">
+        <v>264.7885</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -13075,8 +14911,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.82716377844099</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N307" s="2">
+        <v>43180</v>
+      </c>
+      <c r="O307" s="8">
+        <v>263.8272</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -13114,8 +14956,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.19189914640424</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N308" s="2">
+        <v>43181</v>
+      </c>
+      <c r="O308" s="8">
+        <v>262.19189999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -13153,8 +15001,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.5768435445118</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N309" s="2">
+        <v>43182</v>
+      </c>
+      <c r="O309" s="8">
+        <v>259.57679999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -13192,8 +15046,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.39321486664039</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N310" s="2">
+        <v>43185</v>
+      </c>
+      <c r="O310" s="8">
+        <v>257.39319999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -13231,8 +15091,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.45962403846249</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N311" s="2">
+        <v>43186</v>
+      </c>
+      <c r="O311" s="8">
+        <v>255.45959999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -13270,8 +15136,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.76567909170114</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N312" s="2">
+        <v>43187</v>
+      </c>
+      <c r="O312" s="8">
+        <v>253.76570000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -13309,8 +15181,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>252.7785187911129</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N313" s="2">
+        <v>43188</v>
+      </c>
+      <c r="O313" s="8">
+        <v>252.77850000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -13348,8 +15226,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>251.77892982126502</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N314" s="2">
+        <v>43192</v>
+      </c>
+      <c r="O314" s="8">
+        <v>251.77889999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -13387,8 +15271,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>251.12908296763408</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N315" s="2">
+        <v>43193</v>
+      </c>
+      <c r="O315" s="8">
+        <v>251.12909999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -13426,8 +15316,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>251.15597826679948</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N316" s="2">
+        <v>43194</v>
+      </c>
+      <c r="O316" s="8">
+        <v>251.15600000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -13465,8 +15361,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>251.89583382812566</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N317" s="2">
+        <v>43195</v>
+      </c>
+      <c r="O317" s="8">
+        <v>251.89580000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -13504,8 +15406,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>252.33463379180955</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N318" s="2">
+        <v>43196</v>
+      </c>
+      <c r="O318" s="8">
+        <v>252.33459999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -13543,8 +15451,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>252.51137784516652</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N319" s="2">
+        <v>43199</v>
+      </c>
+      <c r="O319" s="8">
+        <v>252.51140000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -13582,8 +15496,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>252.99804879331168</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N320" s="2">
+        <v>43200</v>
+      </c>
+      <c r="O320" s="8">
+        <v>252.99799999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -13621,8 +15541,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>253.57466918710713</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N321" s="2">
+        <v>43201</v>
+      </c>
+      <c r="O321" s="8">
+        <v>253.57470000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -13660,8 +15586,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>254.35179214107734</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N322" s="2">
+        <v>43202</v>
+      </c>
+      <c r="O322" s="8">
+        <v>254.3518</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -13699,8 +15631,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.10238789392281</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N323" s="2">
+        <v>43203</v>
+      </c>
+      <c r="O323" s="8">
+        <v>255.10239999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -13738,8 +15676,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.96099679551935</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N324" s="2">
+        <v>43206</v>
+      </c>
+      <c r="O324" s="8">
+        <v>255.96100000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -13777,8 +15721,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.14175980717187</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N325" s="2">
+        <v>43207</v>
+      </c>
+      <c r="O325" s="8">
+        <v>257.14179999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -13816,8 +15766,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.45088035323784</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N326" s="2">
+        <v>43208</v>
+      </c>
+      <c r="O326" s="8">
+        <v>258.45089999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -13855,8 +15811,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.4887609852442</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N327" s="2">
+        <v>43209</v>
+      </c>
+      <c r="O327" s="8">
+        <v>259.48880000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -13894,8 +15856,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.91687118623668</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N328" s="2">
+        <v>43210</v>
+      </c>
+      <c r="O328" s="8">
+        <v>259.9169</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -13933,8 +15901,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.85932332274922</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N329" s="2">
+        <v>43213</v>
+      </c>
+      <c r="O329" s="8">
+        <v>259.85930000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -13972,8 +15946,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.12720552991152</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N330" s="2">
+        <v>43214</v>
+      </c>
+      <c r="O330" s="8">
+        <v>259.12720000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -14011,8 +15991,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.09865205607889</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N331" s="2">
+        <v>43215</v>
+      </c>
+      <c r="O331" s="8">
+        <v>258.09870000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -14050,8 +16036,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.36866356248959</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N332" s="2">
+        <v>43216</v>
+      </c>
+      <c r="O332" s="8">
+        <v>257.36869999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -14089,8 +16081,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.03032966800038</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N333" s="2">
+        <v>43217</v>
+      </c>
+      <c r="O333" s="8">
+        <v>257.03030000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -14128,8 +16126,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.74642487493395</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N334" s="2">
+        <v>43220</v>
+      </c>
+      <c r="O334" s="8">
+        <v>256.74639999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -14167,8 +16171,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.51418462307549</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N335" s="2">
+        <v>43221</v>
+      </c>
+      <c r="O335" s="8">
+        <v>256.51420000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>335</v>
       </c>
@@ -14206,8 +16216,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.13723288049516</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N336" s="2">
+        <v>43222</v>
+      </c>
+      <c r="O336" s="8">
+        <v>256.13720000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>336</v>
       </c>
@@ -14245,8 +16261,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.61270615722378</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N337" s="2">
+        <v>43223</v>
+      </c>
+      <c r="O337" s="8">
+        <v>255.61269999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>337</v>
       </c>
@@ -14284,8 +16306,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.44117747305199</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N338" s="2">
+        <v>43224</v>
+      </c>
+      <c r="O338" s="8">
+        <v>255.44120000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>338</v>
       </c>
@@ -14323,8 +16351,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>255.69760054104108</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N339" s="2">
+        <v>43227</v>
+      </c>
+      <c r="O339" s="8">
+        <v>255.69759999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -14362,8 +16396,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.20000958419132</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N340" s="2">
+        <v>43228</v>
+      </c>
+      <c r="O340" s="8">
+        <v>256.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -14401,8 +16441,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>257.05607910193635</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N341" s="2">
+        <v>43229</v>
+      </c>
+      <c r="O341" s="8">
+        <v>257.05610000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>341</v>
       </c>
@@ -14440,8 +16486,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.34110940986488</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N342" s="2">
+        <v>43230</v>
+      </c>
+      <c r="O342" s="8">
+        <v>258.34109999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>342</v>
       </c>
@@ -14479,8 +16531,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.85581798248086</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N343" s="2">
+        <v>43231</v>
+      </c>
+      <c r="O343" s="8">
+        <v>259.85579999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <v>343</v>
       </c>
@@ -14518,8 +16576,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.32480433037949</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N344" s="2">
+        <v>43234</v>
+      </c>
+      <c r="O344" s="8">
+        <v>261.32479999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>344</v>
       </c>
@@ -14557,8 +16621,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.34365677480366</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N345" s="2">
+        <v>43235</v>
+      </c>
+      <c r="O345" s="8">
+        <v>262.34370000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
         <v>345</v>
       </c>
@@ -14596,8 +16666,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.03228874899571</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N346" s="2">
+        <v>43236</v>
+      </c>
+      <c r="O346" s="8">
+        <v>263.03230000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>346</v>
       </c>
@@ -14635,8 +16711,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.44008138431639</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N347" s="2">
+        <v>43237</v>
+      </c>
+      <c r="O347" s="8">
+        <v>263.44009999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <v>347</v>
       </c>
@@ -14674,8 +16756,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.56030231242153</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N348" s="2">
+        <v>43238</v>
+      </c>
+      <c r="O348" s="8">
+        <v>263.56029999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>348</v>
       </c>
@@ -14713,8 +16801,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.71585102983556</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N349" s="2">
+        <v>43241</v>
+      </c>
+      <c r="O349" s="8">
+        <v>263.71589999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <v>349</v>
       </c>
@@ -14752,8 +16846,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.84356207433473</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N350" s="2">
+        <v>43242</v>
+      </c>
+      <c r="O350" s="8">
+        <v>263.84359999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>350</v>
       </c>
@@ -14791,8 +16891,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.00603167233362</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N351" s="2">
+        <v>43243</v>
+      </c>
+      <c r="O351" s="8">
+        <v>264.00599999999997</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
         <v>351</v>
       </c>
@@ -14830,8 +16936,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.114666511314</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N352" s="2">
+        <v>43244</v>
+      </c>
+      <c r="O352" s="8">
+        <v>264.11470000000003</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -14869,8 +16981,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.08391078119189</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N353" s="2">
+        <v>43245</v>
+      </c>
+      <c r="O353" s="8">
+        <v>264.08390000000003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -14908,8 +17026,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.59930011259166</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N354" s="2">
+        <v>43249</v>
+      </c>
+      <c r="O354" s="8">
+        <v>263.59930000000003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -14947,8 +17071,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.23629308267118</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N355" s="2">
+        <v>43250</v>
+      </c>
+      <c r="O355" s="8">
+        <v>263.23630000000003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -14986,8 +17116,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.90060047008433</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N356" s="2">
+        <v>43251</v>
+      </c>
+      <c r="O356" s="8">
+        <v>262.9006</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -15025,8 +17161,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.89826314333664</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N357" s="2">
+        <v>43252</v>
+      </c>
+      <c r="O357" s="8">
+        <v>262.89830000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -15064,8 +17206,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.29877002543822</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N358" s="2">
+        <v>43255</v>
+      </c>
+      <c r="O358" s="8">
+        <v>263.29880000000003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -15103,8 +17251,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.93461342196429</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N359" s="2">
+        <v>43256</v>
+      </c>
+      <c r="O359" s="8">
+        <v>263.93459999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -15142,8 +17296,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.87223685468302</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N360" s="2">
+        <v>43257</v>
+      </c>
+      <c r="O360" s="8">
+        <v>264.87220000000002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -15181,8 +17341,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.90031356827467</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N361" s="2">
+        <v>43258</v>
+      </c>
+      <c r="O361" s="8">
+        <v>265.90030000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -15220,8 +17386,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.92503429320345</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N362" s="2">
+        <v>43259</v>
+      </c>
+      <c r="O362" s="8">
+        <v>266.92500000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -15259,8 +17431,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.86113384284386</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N363" s="2">
+        <v>43262</v>
+      </c>
+      <c r="O363" s="8">
+        <v>267.86110000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -15298,8 +17476,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.66581558164307</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N364" s="2">
+        <v>43263</v>
+      </c>
+      <c r="O364" s="8">
+        <v>268.66579999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -15337,8 +17521,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.19262300179525</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N365" s="2">
+        <v>43264</v>
+      </c>
+      <c r="O365" s="8">
+        <v>269.19260000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -15376,8 +17566,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.54261417124962</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N366" s="2">
+        <v>43265</v>
+      </c>
+      <c r="O366" s="8">
+        <v>269.54259999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -15415,8 +17611,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.72080569452714</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N367" s="2">
+        <v>43266</v>
+      </c>
+      <c r="O367" s="8">
+        <v>269.7208</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -15454,8 +17656,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.70679213043559</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N368" s="2">
+        <v>43269</v>
+      </c>
+      <c r="O368" s="8">
+        <v>269.70679999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -15493,8 +17701,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.44822688882505</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N369" s="2">
+        <v>43270</v>
+      </c>
+      <c r="O369" s="8">
+        <v>269.44819999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -15532,8 +17746,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.10843151737049</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N370" s="2">
+        <v>43271</v>
+      </c>
+      <c r="O370" s="8">
+        <v>269.10840000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -15571,8 +17791,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.58543003949467</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N371" s="2">
+        <v>43272</v>
+      </c>
+      <c r="O371" s="8">
+        <v>268.58539999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -15610,8 +17836,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.04106275969343</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N372" s="2">
+        <v>43273</v>
+      </c>
+      <c r="O372" s="8">
+        <v>268.04109999999997</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -15649,8 +17881,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.14542786444576</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N373" s="2">
+        <v>43276</v>
+      </c>
+      <c r="O373" s="8">
+        <v>267.1454</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -15688,8 +17926,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.13858766162798</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N374" s="2">
+        <v>43277</v>
+      </c>
+      <c r="O374" s="8">
+        <v>266.1386</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -15727,8 +17971,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.9625552671987</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N375" s="2">
+        <v>43278</v>
+      </c>
+      <c r="O375" s="8">
+        <v>264.96260000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -15766,8 +18016,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.97450527125443</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N376" s="2">
+        <v>43279</v>
+      </c>
+      <c r="O376" s="8">
+        <v>263.97449999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -15805,8 +18061,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.31880108433279</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N377" s="2">
+        <v>43280</v>
+      </c>
+      <c r="O377" s="8">
+        <v>263.31880000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -15844,8 +18106,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.02918071618615</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N378" s="2">
+        <v>43283</v>
+      </c>
+      <c r="O378" s="8">
+        <v>263.0292</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -15883,8 +18151,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.89343391355987</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N379" s="2">
+        <v>43284</v>
+      </c>
+      <c r="O379" s="8">
+        <v>262.89339999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -15922,8 +18196,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.08220879731812</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N380" s="2">
+        <v>43286</v>
+      </c>
+      <c r="O380" s="8">
+        <v>263.0822</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -15961,8 +18241,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.74590414813088</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N381" s="2">
+        <v>43287</v>
+      </c>
+      <c r="O381" s="8">
+        <v>263.74590000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -16000,8 +18286,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.93955954432772</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N382" s="2">
+        <v>43290</v>
+      </c>
+      <c r="O382" s="8">
+        <v>264.93959999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -16039,8 +18331,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.45262881425833</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N383" s="2">
+        <v>43291</v>
+      </c>
+      <c r="O383" s="8">
+        <v>266.45260000000002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -16078,8 +18376,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.72861520306924</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N384" s="2">
+        <v>43292</v>
+      </c>
+      <c r="O384" s="8">
+        <v>267.72859999999997</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -16117,8 +18421,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.90807509351839</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N385" s="2">
+        <v>43293</v>
+      </c>
+      <c r="O385" s="8">
+        <v>268.90809999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -16156,8 +18466,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.9535917337812</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N386" s="2">
+        <v>43294</v>
+      </c>
+      <c r="O386" s="8">
+        <v>269.95359999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -16195,8 +18511,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>270.76824901470422</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N387" s="2">
+        <v>43297</v>
+      </c>
+      <c r="O387" s="8">
+        <v>270.76819999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>387</v>
       </c>
@@ -16234,8 +18556,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>271.4621284118623</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N388" s="2">
+        <v>43298</v>
+      </c>
+      <c r="O388" s="8">
+        <v>271.46210000000002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>388</v>
       </c>
@@ -16273,8 +18601,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.0899856767046</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N389" s="2">
+        <v>43299</v>
+      </c>
+      <c r="O389" s="8">
+        <v>272.08999999999997</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
         <v>389</v>
       </c>
@@ -16312,8 +18646,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.49365205904633</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N390" s="2">
+        <v>43300</v>
+      </c>
+      <c r="O390" s="8">
+        <v>272.49369999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>390</v>
       </c>
@@ -16351,8 +18691,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.64600932174517</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N391" s="2">
+        <v>43301</v>
+      </c>
+      <c r="O391" s="8">
+        <v>272.64600000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <v>391</v>
       </c>
@@ -16390,8 +18736,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.67698854662808</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N392" s="2">
+        <v>43304</v>
+      </c>
+      <c r="O392" s="8">
+        <v>272.67700000000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>392</v>
       </c>
@@ -16429,8 +18781,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>272.80898902603121</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N393" s="2">
+        <v>43305</v>
+      </c>
+      <c r="O393" s="8">
+        <v>272.80900000000003</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
         <v>393</v>
       </c>
@@ -16468,8 +18826,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.29613582594607</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N394" s="2">
+        <v>43306</v>
+      </c>
+      <c r="O394" s="8">
+        <v>273.29610000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -16507,8 +18871,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.90952182594606</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N395" s="2">
+        <v>43307</v>
+      </c>
+      <c r="O395" s="8">
+        <v>273.90949999999998</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -16546,8 +18916,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>274.26817517097766</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N396" s="2">
+        <v>43308</v>
+      </c>
+      <c r="O396" s="8">
+        <v>274.26819999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -16585,8 +18961,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>274.19276532592744</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N397" s="2">
+        <v>43311</v>
+      </c>
+      <c r="O397" s="8">
+        <v>274.19279999999998</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -16624,8 +19006,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.98335615295468</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N398" s="2">
+        <v>43312</v>
+      </c>
+      <c r="O398" s="8">
+        <v>273.98340000000002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -16663,8 +19051,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.71507839597984</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N399" s="2">
+        <v>43313</v>
+      </c>
+      <c r="O399" s="8">
+        <v>273.71510000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -16702,8 +19096,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.62278010548107</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N400" s="2">
+        <v>43314</v>
+      </c>
+      <c r="O400" s="8">
+        <v>273.62279999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -16741,8 +19141,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>273.82467056447786</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N401" s="2">
+        <v>43315</v>
+      </c>
+      <c r="O401" s="8">
+        <v>273.82470000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -16780,8 +19186,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>274.31959255201923</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N402" s="2">
+        <v>43318</v>
+      </c>
+      <c r="O402" s="8">
+        <v>274.31959999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -16819,8 +19231,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>275.04239382980813</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N403" s="2">
+        <v>43319</v>
+      </c>
+      <c r="O403" s="8">
+        <v>275.04239999999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -16858,8 +19276,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>275.79766208217711</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N404" s="2">
+        <v>43320</v>
+      </c>
+      <c r="O404" s="8">
+        <v>275.79770000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -16897,8 +19321,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>276.41065770593559</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N405" s="2">
+        <v>43321</v>
+      </c>
+      <c r="O405" s="8">
+        <v>276.41070000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -16936,8 +19366,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>276.62067454310613</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N406" s="2">
+        <v>43322</v>
+      </c>
+      <c r="O406" s="8">
+        <v>276.6207</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -16975,8 +19411,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>276.39396449013407</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N407" s="2">
+        <v>43325</v>
+      </c>
+      <c r="O407" s="8">
+        <v>276.39400000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
         <v>407</v>
       </c>
@@ -17014,8 +19456,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>276.12351370166402</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N408" s="2">
+        <v>43326</v>
+      </c>
+      <c r="O408" s="8">
+        <v>276.12349999999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>408</v>
       </c>
@@ -17053,8 +19501,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>275.68460343981724</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N409" s="2">
+        <v>43327</v>
+      </c>
+      <c r="O409" s="8">
+        <v>275.68459999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <v>409</v>
       </c>
@@ -17092,8 +19546,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>275.42235529498976</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N410" s="2">
+        <v>43328</v>
+      </c>
+      <c r="O410" s="8">
+        <v>275.42239999999998</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>410</v>
       </c>
@@ -17131,8 +19591,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>275.4709399983908</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N411" s="2">
+        <v>43329</v>
+      </c>
+      <c r="O411" s="8">
+        <v>275.47089999999997</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
         <v>411</v>
       </c>
@@ -17170,8 +19636,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>275.79355295148594</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N412" s="2">
+        <v>43332</v>
+      </c>
+      <c r="O412" s="8">
+        <v>275.79360000000003</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>412</v>
       </c>
@@ -17209,8 +19681,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>276.31484392797324</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N413" s="2">
+        <v>43333</v>
+      </c>
+      <c r="O413" s="8">
+        <v>276.31479999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -17248,8 +19726,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>276.86586898497649</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N414" s="2">
+        <v>43334</v>
+      </c>
+      <c r="O414" s="8">
+        <v>276.86590000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>414</v>
       </c>
@@ -17287,8 +19771,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>277.30090717956432</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N415" s="2">
+        <v>43335</v>
+      </c>
+      <c r="O415" s="8">
+        <v>277.30090000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>415</v>
       </c>
@@ -17326,8 +19816,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>277.78811819266343</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N416" s="2">
+        <v>43336</v>
+      </c>
+      <c r="O416" s="8">
+        <v>277.78809999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -17365,8 +19861,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>278.54182401640628</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N417" s="2">
+        <v>43339</v>
+      </c>
+      <c r="O417" s="8">
+        <v>278.54180000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -17404,8 +19906,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>279.42949522260847</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N418" s="2">
+        <v>43340</v>
+      </c>
+      <c r="O418" s="8">
+        <v>279.42950000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>418</v>
       </c>
@@ -17443,8 +19951,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>280.45170271302595</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N419" s="2">
+        <v>43341</v>
+      </c>
+      <c r="O419" s="8">
+        <v>280.45170000000002</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
         <v>419</v>
       </c>
@@ -17482,8 +19996,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.30935202252135</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N420" s="2">
+        <v>43342</v>
+      </c>
+      <c r="O420" s="8">
+        <v>281.30939999999998</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>420</v>
       </c>
@@ -17521,8 +20041,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.91639256252483</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N421" s="2">
+        <v>43343</v>
+      </c>
+      <c r="O421" s="8">
+        <v>281.91640000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <v>421</v>
       </c>
@@ -17560,8 +20086,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>282.23090824612405</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N422" s="2">
+        <v>43347</v>
+      </c>
+      <c r="O422" s="8">
+        <v>282.23090000000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>422</v>
       </c>
@@ -17599,8 +20131,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>282.23351766825408</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N423" s="2">
+        <v>43348</v>
+      </c>
+      <c r="O423" s="8">
+        <v>282.23349999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
         <v>423</v>
       </c>
@@ -17638,8 +20176,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.94026119942669</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N424" s="2">
+        <v>43349</v>
+      </c>
+      <c r="O424" s="8">
+        <v>281.94029999999998</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>424</v>
       </c>
@@ -17677,8 +20221,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.43297523917022</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N425" s="2">
+        <v>43350</v>
+      </c>
+      <c r="O425" s="8">
+        <v>281.43299999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
         <v>425</v>
       </c>
@@ -17716,8 +20266,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>280.91817238684257</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N426" s="2">
+        <v>43353</v>
+      </c>
+      <c r="O426" s="8">
+        <v>280.91820000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>426</v>
       </c>
@@ -17755,8 +20311,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>280.59546806793878</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N427" s="2">
+        <v>43354</v>
+      </c>
+      <c r="O427" s="8">
+        <v>280.59550000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
         <v>427</v>
       </c>
@@ -17794,8 +20356,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>280.46507662231807</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N428" s="2">
+        <v>43355</v>
+      </c>
+      <c r="O428" s="8">
+        <v>280.46510000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>428</v>
       </c>
@@ -17833,8 +20401,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>280.65648435548746</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N429" s="2">
+        <v>43356</v>
+      </c>
+      <c r="O429" s="8">
+        <v>280.65649999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
         <v>429</v>
       </c>
@@ -17872,8 +20446,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.0505694307974</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N430" s="2">
+        <v>43357</v>
+      </c>
+      <c r="O430" s="8">
+        <v>281.05059999999997</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>430</v>
       </c>
@@ -17911,8 +20491,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.32697886655023</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N431" s="2">
+        <v>43360</v>
+      </c>
+      <c r="O431" s="8">
+        <v>281.327</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
         <v>431</v>
       </c>
@@ -17950,8 +20536,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.62228415234608</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N432" s="2">
+        <v>43361</v>
+      </c>
+      <c r="O432" s="8">
+        <v>281.6223</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>432</v>
       </c>
@@ -17989,8 +20581,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>281.95820269973296</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N433" s="2">
+        <v>43362</v>
+      </c>
+      <c r="O433" s="8">
+        <v>281.95819999999998</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
         <v>433</v>
       </c>
@@ -18028,8 +20626,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>282.55363098755288</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N434" s="2">
+        <v>43363</v>
+      </c>
+      <c r="O434" s="8">
+        <v>282.55360000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -18067,8 +20671,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>283.25103272808997</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N435" s="2">
+        <v>43364</v>
+      </c>
+      <c r="O435" s="8">
+        <v>283.25099999999998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -18106,8 +20716,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>283.79315000403744</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N436" s="2">
+        <v>43367</v>
+      </c>
+      <c r="O436" s="8">
+        <v>283.79320000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>436</v>
       </c>
@@ -18145,8 +20761,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>284.10355299362618</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N437" s="2">
+        <v>43368</v>
+      </c>
+      <c r="O437" s="8">
+        <v>284.10359999999997</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -18184,8 +20806,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>284.12533362321415</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N438" s="2">
+        <v>43369</v>
+      </c>
+      <c r="O438" s="8">
+        <v>284.12529999999998</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -18223,8 +20851,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>284.04960249256942</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N439" s="2">
+        <v>43370</v>
+      </c>
+      <c r="O439" s="8">
+        <v>284.0496</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
         <v>439</v>
       </c>
@@ -18262,8 +20896,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>283.95899376053922</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N440" s="2">
+        <v>43371</v>
+      </c>
+      <c r="O440" s="8">
+        <v>283.959</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -18301,8 +20941,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>283.99664810099489</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N441" s="2">
+        <v>43374</v>
+      </c>
+      <c r="O441" s="8">
+        <v>283.9966</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -18340,8 +20986,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>284.11132506461945</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N442" s="2">
+        <v>43375</v>
+      </c>
+      <c r="O442" s="8">
+        <v>284.11130000000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -18379,8 +21031,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>284.26676257140593</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N443" s="2">
+        <v>43376</v>
+      </c>
+      <c r="O443" s="8">
+        <v>284.26679999999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -18418,8 +21076,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>284.16098041362898</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N444" s="2">
+        <v>43377</v>
+      </c>
+      <c r="O444" s="8">
+        <v>284.161</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -18457,8 +21121,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>283.66675332875616</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N445" s="2">
+        <v>43378</v>
+      </c>
+      <c r="O445" s="8">
+        <v>283.66680000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
         <v>445</v>
       </c>
@@ -18496,8 +21166,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>282.96668160604918</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N446" s="2">
+        <v>43381</v>
+      </c>
+      <c r="O446" s="8">
+        <v>282.9667</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>446</v>
       </c>
@@ -18535,8 +21211,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>282.20273335649199</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N447" s="2">
+        <v>43382</v>
+      </c>
+      <c r="O447" s="8">
+        <v>282.20269999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -18574,8 +21256,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>280.47012228520293</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N448" s="2">
+        <v>43383</v>
+      </c>
+      <c r="O448" s="8">
+        <v>280.4701</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>448</v>
       </c>
@@ -18613,8 +21301,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>277.47207710946532</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N449" s="2">
+        <v>43384</v>
+      </c>
+      <c r="O449" s="8">
+        <v>277.47210000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -18652,8 +21346,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>274.4110250027245</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N450" s="2">
+        <v>43385</v>
+      </c>
+      <c r="O450" s="8">
+        <v>274.411</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -18691,8 +21391,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>271.69131178331941</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N451" s="2">
+        <v>43388</v>
+      </c>
+      <c r="O451" s="8">
+        <v>271.69130000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
         <v>451</v>
       </c>
@@ -18730,8 +21436,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>270.23218443665701</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N452" s="2">
+        <v>43389</v>
+      </c>
+      <c r="O452" s="8">
+        <v>270.23219999999998</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -18769,8 +21481,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.87489282187357</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N453" s="2">
+        <v>43390</v>
+      </c>
+      <c r="O453" s="8">
+        <v>269.87490000000003</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -18808,8 +21526,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.74030149970326</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N454" s="2">
+        <v>43391</v>
+      </c>
+      <c r="O454" s="8">
+        <v>269.74029999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>454</v>
       </c>
@@ -18847,8 +21571,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.58771747569472</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N455" s="2">
+        <v>43392</v>
+      </c>
+      <c r="O455" s="8">
+        <v>269.58769999999998</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -18886,8 +21616,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.27028425912272</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N456" s="2">
+        <v>43395</v>
+      </c>
+      <c r="O456" s="8">
+        <v>269.27030000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -18925,8 +21661,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.71513425593685</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N457" s="2">
+        <v>43396</v>
+      </c>
+      <c r="O457" s="8">
+        <v>268.71510000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
         <v>457</v>
       </c>
@@ -18964,8 +21706,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.12902879022113</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N458" s="2">
+        <v>43397</v>
+      </c>
+      <c r="O458" s="8">
+        <v>267.12900000000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -19003,8 +21751,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.49582233685965</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N459" s="2">
+        <v>43398</v>
+      </c>
+      <c r="O459" s="8">
+        <v>265.49579999999997</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -19042,8 +21796,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.66110064440159</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N460" s="2">
+        <v>43399</v>
+      </c>
+      <c r="O460" s="8">
+        <v>263.66109999999998</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>460</v>
       </c>
@@ -19081,8 +21841,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.71190145086325</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N461" s="2">
+        <v>43402</v>
+      </c>
+      <c r="O461" s="8">
+        <v>261.71190000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -19120,8 +21886,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.37425929508527</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N462" s="2">
+        <v>43403</v>
+      </c>
+      <c r="O462" s="8">
+        <v>260.37430000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -19159,8 +21931,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.02003432134347</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N463" s="2">
+        <v>43404</v>
+      </c>
+      <c r="O463" s="8">
+        <v>260.02</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>463</v>
       </c>
@@ -19198,8 +21976,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.70478382194892</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N464" s="2">
+        <v>43405</v>
+      </c>
+      <c r="O464" s="8">
+        <v>260.70479999999998</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>464</v>
       </c>
@@ -19237,8 +22021,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.77988387598725</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N465" s="2">
+        <v>43406</v>
+      </c>
+      <c r="O465" s="8">
+        <v>261.7799</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <v>465</v>
       </c>
@@ -19276,8 +22066,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.03687642384398</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N466" s="2">
+        <v>43409</v>
+      </c>
+      <c r="O466" s="8">
+        <v>263.0369</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>466</v>
       </c>
@@ -19315,8 +22111,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.43883376194981</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N467" s="2">
+        <v>43410</v>
+      </c>
+      <c r="O467" s="8">
+        <v>264.43880000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
         <v>467</v>
       </c>
@@ -19354,8 +22156,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.45123101924423</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N468" s="2">
+        <v>43411</v>
+      </c>
+      <c r="O468" s="8">
+        <v>266.45119999999997</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>468</v>
       </c>
@@ -19393,8 +22201,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>268.64897612179516</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N469" s="2">
+        <v>43412</v>
+      </c>
+      <c r="O469" s="8">
+        <v>268.649</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <v>469</v>
       </c>
@@ -19432,8 +22246,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>270.33269967313117</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N470" s="2">
+        <v>43413</v>
+      </c>
+      <c r="O470" s="8">
+        <v>270.33269999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>470</v>
       </c>
@@ -19471,8 +22291,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>270.80227394282656</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N471" s="2">
+        <v>43416</v>
+      </c>
+      <c r="O471" s="8">
+        <v>270.8023</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
         <v>471</v>
       </c>
@@ -19510,8 +22336,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>270.2971507355403</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N472" s="2">
+        <v>43417</v>
+      </c>
+      <c r="O472" s="8">
+        <v>270.29719999999998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>472</v>
       </c>
@@ -19549,8 +22381,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>269.08556616442752</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N473" s="2">
+        <v>43418</v>
+      </c>
+      <c r="O473" s="8">
+        <v>269.0856</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
         <v>473</v>
       </c>
@@ -19588,8 +22426,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.94070952087122</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N474" s="2">
+        <v>43419</v>
+      </c>
+      <c r="O474" s="8">
+        <v>267.94069999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>474</v>
       </c>
@@ -19627,8 +22471,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.17506464293456</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N475" s="2">
+        <v>43420</v>
+      </c>
+      <c r="O475" s="8">
+        <v>267.17509999999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
         <v>475</v>
       </c>
@@ -19666,8 +22516,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.24427286819059</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N476" s="2">
+        <v>43423</v>
+      </c>
+      <c r="O476" s="8">
+        <v>266.24430000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>476</v>
       </c>
@@ -19705,8 +22561,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>264.64055613897426</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N477" s="2">
+        <v>43424</v>
+      </c>
+      <c r="O477" s="8">
+        <v>264.64060000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
         <v>477</v>
       </c>
@@ -19744,8 +22606,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>262.80994435922389</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N478" s="2">
+        <v>43425</v>
+      </c>
+      <c r="O478" s="8">
+        <v>262.80990000000003</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>478</v>
       </c>
@@ -19783,8 +22651,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.92273257534248</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N479" s="2">
+        <v>43427</v>
+      </c>
+      <c r="O479" s="8">
+        <v>260.92270000000002</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
         <v>479</v>
       </c>
@@ -19822,8 +22696,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.72172174752041</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N480" s="2">
+        <v>43430</v>
+      </c>
+      <c r="O480" s="8">
+        <v>259.7217</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>480</v>
       </c>
@@ -19861,8 +22741,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.3090019563756</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N481" s="2">
+        <v>43431</v>
+      </c>
+      <c r="O481" s="8">
+        <v>259.30900000000003</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <v>481</v>
       </c>
@@ -19900,8 +22786,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.14553968982568</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N482" s="2">
+        <v>43432</v>
+      </c>
+      <c r="O482" s="8">
+        <v>260.14550000000003</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>482</v>
       </c>
@@ -19939,8 +22831,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.67198399466906</v>
       </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N483" s="2">
+        <v>43433</v>
+      </c>
+      <c r="O483" s="8">
+        <v>261.67200000000003</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
         <v>483</v>
       </c>
@@ -19978,8 +22876,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.54554117586622</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N484" s="2">
+        <v>43434</v>
+      </c>
+      <c r="O484" s="8">
+        <v>263.5455</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>484</v>
       </c>
@@ -20017,8 +22921,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.78828423972755</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N485" s="2">
+        <v>43437</v>
+      </c>
+      <c r="O485" s="8">
+        <v>265.78829999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
         <v>485</v>
       </c>
@@ -20056,8 +22966,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>266.99151208547596</v>
       </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N486" s="2">
+        <v>43438</v>
+      </c>
+      <c r="O486" s="8">
+        <v>266.99149999999997</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>486</v>
       </c>
@@ -20095,8 +23011,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>267.13219026551656</v>
       </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N487" s="2">
+        <v>43440</v>
+      </c>
+      <c r="O487" s="8">
+        <v>267.13220000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
         <v>487</v>
       </c>
@@ -20134,8 +23056,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>265.89809340928014</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N488" s="2">
+        <v>43441</v>
+      </c>
+      <c r="O488" s="8">
+        <v>265.8981</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>488</v>
       </c>
@@ -20173,8 +23101,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>263.96264719360101</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N489" s="2">
+        <v>43444</v>
+      </c>
+      <c r="O489" s="8">
+        <v>263.96260000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
         <v>489</v>
       </c>
@@ -20212,8 +23146,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>261.93909138089248</v>
       </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N490" s="2">
+        <v>43445</v>
+      </c>
+      <c r="O490" s="8">
+        <v>261.9391</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>490</v>
       </c>
@@ -20251,8 +23191,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>260.33866593998164</v>
       </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N491" s="2">
+        <v>43446</v>
+      </c>
+      <c r="O491" s="8">
+        <v>260.33870000000002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
         <v>491</v>
       </c>
@@ -20290,8 +23236,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>259.24748518741899</v>
       </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N492" s="2">
+        <v>43447</v>
+      </c>
+      <c r="O492" s="8">
+        <v>259.2475</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>492</v>
       </c>
@@ -20329,8 +23281,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>258.03794852158012</v>
       </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N493" s="2">
+        <v>43448</v>
+      </c>
+      <c r="O493" s="8">
+        <v>258.03789999999998</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
         <v>493</v>
       </c>
@@ -20368,8 +23326,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>256.19059028996548</v>
       </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N494" s="2">
+        <v>43451</v>
+      </c>
+      <c r="O494" s="8">
+        <v>256.19060000000002</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>494</v>
       </c>
@@ -20407,8 +23371,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>254.03546033601242</v>
       </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N495" s="2">
+        <v>43452</v>
+      </c>
+      <c r="O495" s="8">
+        <v>254.03550000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
         <v>495</v>
       </c>
@@ -20446,8 +23416,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>251.55979060635605</v>
       </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N496" s="2">
+        <v>43453</v>
+      </c>
+      <c r="O496" s="8">
+        <v>251.5598</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>496</v>
       </c>
@@ -20485,8 +23461,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>248.69615674752617</v>
       </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N497" s="2">
+        <v>43454</v>
+      </c>
+      <c r="O497" s="8">
+        <v>248.6962</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
         <v>497</v>
       </c>
@@ -20524,8 +23506,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>245.32609038488113</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N498" s="2">
+        <v>43455</v>
+      </c>
+      <c r="O498" s="8">
+        <v>245.3261</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>498</v>
       </c>
@@ -20563,8 +23551,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>241.2731299926578</v>
       </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N499" s="2">
+        <v>43458</v>
+      </c>
+      <c r="O499" s="8">
+        <v>241.2731</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
         <v>499</v>
       </c>
@@ -20602,8 +23596,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>238.58258990759532</v>
       </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N500" s="2">
+        <v>43460</v>
+      </c>
+      <c r="O500" s="8">
+        <v>238.58260000000001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>500</v>
       </c>
@@ -20641,8 +23641,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>237.61610302059898</v>
       </c>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N501" s="2">
+        <v>43461</v>
+      </c>
+      <c r="O501" s="8">
+        <v>237.61609999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
         <v>501</v>
       </c>
@@ -20680,8 +23686,14 @@
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>237.84098507799922</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N502" s="2">
+        <v>43462</v>
+      </c>
+      <c r="O502" s="8">
+        <v>237.84100000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>502</v>
       </c>
@@ -20718,6 +23730,12 @@
       <c r="J503" s="9">
         <f>vf_C1*testdata[[#This Row],[e6]]+vf_C2*testdata[[#This Row],[e5]]+vf_C3*testdata[[#This Row],[e4]]+vf_C4*testdata[[#This Row],[e3]]</f>
         <v>238.93083272133583</v>
+      </c>
+      <c r="N503" s="2">
+        <v>43465</v>
+      </c>
+      <c r="O503" s="9">
+        <v>238.9308</v>
       </c>
     </row>
   </sheetData>
@@ -20727,10 +23745,11 @@
   <ignoredErrors>
     <ignoredError sqref="L2:L3" calculatedColumn="1"/>
   </ignoredErrors>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>